--- a/historical_predictions_2005_2008.xlsx
+++ b/historical_predictions_2005_2008.xlsx
@@ -510,7 +510,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>11979853500.78314</v>
+        <v>12588230086.72883</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -548,7 +548,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>12712223289.13299</v>
+        <v>13316150326.61893</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>14667048983.1752</v>
+        <v>15315799895.71995</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>981385154.0264436</v>
+        <v>964876852.6045512</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1041380615.364685</v>
+        <v>1060723735.707621</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -738,7 +738,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1201519210.942424</v>
+        <v>1338149154.46493</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>4661213358.489225</v>
+        <v>964876852.6045512</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>4946169417.475012</v>
+        <v>1060723735.707621</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>5706768003.926163</v>
+        <v>1338149154.46493</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>25944181091.80439</v>
+        <v>27261712421.94604</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>31234767410.16676</v>
+        <v>32718655800.06863</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>40293925138.04619</v>
+        <v>42076200545.54661</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>842553751.0951536</v>
+        <v>535225865.7407528</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1156,7 +1156,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1014368900.405726</v>
+        <v>850175274.2939798</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1308570798.641729</v>
+        <v>1380142625.075953</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>905428164.6740768</v>
+        <v>535225865.7407528</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1308,7 +1308,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1090064782.932875</v>
+        <v>850175274.2939798</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1406221092.74363</v>
+        <v>1380142625.075953</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>7284569559.668474</v>
+        <v>7654504096.72315</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1460,7 +1460,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>7764651319.889049</v>
+        <v>8133531157.984763</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>8489279637.204736</v>
+        <v>8864776297.63055</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1574,7 +1574,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>122218673.7720001</v>
+        <v>140530466.9454103</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>130273364.6573949</v>
+        <v>153198782.84889</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>142430996.0993809</v>
+        <v>172918612.0246162</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>329534306.8624967</v>
+        <v>140530466.9454103</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>351251912.6586605</v>
+        <v>153198782.84889</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>384032146.0442594</v>
+        <v>172918612.0246162</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>8390238967.767964</v>
+        <v>8816323054.534595</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>9616237558.843361</v>
+        <v>10073081788.88752</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>12443821948.9182</v>
+        <v>12994235386.15194</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>696364587.7332156</v>
+        <v>687362740.9171137</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -2068,7 +2068,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>798118781.7097479</v>
+        <v>867158800.0464883</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1032799777.762374</v>
+        <v>1286416378.814464</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1439168336.554556</v>
+        <v>687362740.9171137</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1649462508.116823</v>
+        <v>867158800.0464883</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2134474906.30531</v>
+        <v>1286416378.814464</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2555414812.579836</v>
+        <v>2685187229.183324</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3258940762.745521</v>
+        <v>3413765170.358748</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>3863638677.935515</v>
+        <v>4034534617.597893</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>15678619.22917962</v>
+        <v>12222541.9774089</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>19995067.35971183</v>
+        <v>20157123.39342895</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>23705161.04558635</v>
+        <v>26666112.87111549</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>63903241.55066652</v>
+        <v>12222541.9774089</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -2676,7 +2676,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>81496310.39776014</v>
+        <v>20157123.39342895</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -2714,7 +2714,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>96617987.21881574</v>
+        <v>26666112.87111549</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -2790,7 +2790,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>60697082956.1757</v>
+        <v>63779481593.46512</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>57810086719.48364</v>
+        <v>60556504369.27027</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>57534806612.15752</v>
+        <v>60079678340.31086</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>6250227095.324531</v>
+        <v>7791047755.085675</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>5952941274.92191</v>
+        <v>7087788575.354771</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>5924594555.412246</v>
+        <v>6904306000.85439</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
@@ -3094,7 +3094,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>12450172873.78965</v>
+        <v>7791047755.085675</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>11857992813.69107</v>
+        <v>7087788575.354771</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>11801527416.0475</v>
+        <v>6904306000.85439</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>310454042.9204485</v>
+        <v>326219926.0936137</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>379745292.8422718</v>
+        <v>397786074.8903276</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
@@ -3322,7 +3322,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>470784574.1282437</v>
+        <v>491608253.2765198</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
@@ -3398,7 +3398,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>4017827.986553316</v>
+        <v>3275605.950580339</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
@@ -3436,7 +3436,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>4914580.113020226</v>
+        <v>4910660.812007282</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
@@ -3474,7 +3474,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>6092790.481245987</v>
+        <v>7005244.076054725</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
@@ -3550,7 +3550,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3287313.909595268</v>
+        <v>3275605.950580339</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
@@ -3588,7 +3588,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>4021020.217744778</v>
+        <v>4910660.812007282</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
@@ -3626,7 +3626,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>4985010.549053231</v>
+        <v>7005244.076054725</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
@@ -3702,7 +3702,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2869344386.754055</v>
+        <v>3015059185.503619</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
@@ -3740,7 +3740,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>3252322085.956227</v>
+        <v>3406832056.214594</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
@@ -3778,7 +3778,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3869179431.444075</v>
+        <v>4040320448.960832</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
@@ -3854,7 +3854,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>55856547.54917335</v>
+        <v>49878590.74486677</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>63311843.66647164</v>
+        <v>63060605.0969645</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
@@ -3930,7 +3930,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>75319995.00876369</v>
+        <v>84167977.67345709</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>891508047.1236448</v>
+        <v>49878590.74486677</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
@@ -4044,7 +4044,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1010499584.801656</v>
+        <v>63060605.0969645</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1202157752.419472</v>
+        <v>84167977.67345709</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
@@ -4158,7 +4158,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>3412155054.926295</v>
+        <v>3585435574.833963</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>3967982807.915241</v>
+        <v>4156492091.262078</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>4830698169.792041</v>
+        <v>5044368953.156561</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
@@ -4310,7 +4310,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>152582564.6422599</v>
+        <v>145370639.7866979</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>177437714.154869</v>
+        <v>189697963.701226</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>216016067.2345126</v>
+        <v>257747380.1098847</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>874950916.8527097</v>
+        <v>145370639.7866979</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1017477265.820273</v>
+        <v>189697963.701226</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
@@ -4538,7 +4538,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1238696285.679067</v>
+        <v>257747380.1098847</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
@@ -4614,7 +4614,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>8742684232.577724</v>
+        <v>9186666655.657373</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
@@ -4652,7 +4652,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>9849109339.576662</v>
+        <v>10317016745.70368</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>10965646527.19404</v>
+        <v>11450677510.5446</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
@@ -4766,7 +4766,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>80850885.00406</v>
+        <v>97498911.34386954</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>91082919.77871646</v>
+        <v>115063137.7574197</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
@@ -4842,7 +4842,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>101408469.38766</v>
+        <v>132089261.6914992</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1098363796.13778</v>
+        <v>97498911.34386954</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
@@ -4956,7 +4956,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1237366561.002272</v>
+        <v>115063137.7574197</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
@@ -4994,7 +4994,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1377639730.12242</v>
+        <v>132089261.6914992</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>4069054016.089646</v>
+        <v>4275694038.037778</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
@@ -5108,7 +5108,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>4203833407.659684</v>
+        <v>4403547383.588872</v>
       </c>
       <c r="H123" t="inlineStr">
         <is>
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>4426366257.975622</v>
+        <v>4622152687.298455</v>
       </c>
       <c r="H124" t="inlineStr">
         <is>
@@ -5222,7 +5222,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>83690341.55852474</v>
+        <v>101374618.8096606</v>
       </c>
       <c r="H126" t="inlineStr">
         <is>
@@ -5260,7 +5260,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>86462419.11535858</v>
+        <v>104771783.315463</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
@@ -5298,7 +5298,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>91039367.51105237</v>
+        <v>111325792.008986</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
@@ -5374,7 +5374,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>336932050.1130933</v>
+        <v>101374618.8096606</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
@@ -5412,7 +5412,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>348092259.9641114</v>
+        <v>104771783.315463</v>
       </c>
       <c r="H131" t="inlineStr">
         <is>
@@ -5450,7 +5450,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>366518766.2670465</v>
+        <v>111325792.008986</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
@@ -5526,7 +5526,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>5520629489.912913</v>
+        <v>5800985315.727043</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>6466594551.27389</v>
+        <v>6773806846.176867</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
@@ -5602,7 +5602,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>7667552257.356628</v>
+        <v>8006702384.260192</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>335639959.0680351</v>
+        <v>314563462.3626673</v>
       </c>
       <c r="H138" t="inlineStr">
         <is>
@@ -5716,7 +5716,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>393152182.0953403</v>
+        <v>417528342.6308102</v>
       </c>
       <c r="H139" t="inlineStr">
         <is>
@@ -5754,7 +5754,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>466167296.7753893</v>
+        <v>545241299.4230539</v>
       </c>
       <c r="H140" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>497861577.4304048</v>
+        <v>314563462.3626673</v>
       </c>
       <c r="H142" t="inlineStr">
         <is>
@@ -5868,7 +5868,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>583170627.5131437</v>
+        <v>417528342.6308102</v>
       </c>
       <c r="H143" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>691475432.0775566</v>
+        <v>545241299.4230539</v>
       </c>
       <c r="H144" t="inlineStr">
         <is>
@@ -5982,7 +5982,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>756904467.4810846</v>
+        <v>795342579.9156885</v>
       </c>
       <c r="H146" t="inlineStr">
         <is>
@@ -6020,7 +6020,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>871240408.2387815</v>
+        <v>912630936.6080782</v>
       </c>
       <c r="H147" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1125976060.979665</v>
+        <v>1175780080.718198</v>
       </c>
       <c r="H148" t="inlineStr">
         <is>
@@ -6134,7 +6134,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>9461249.872578828</v>
+        <v>7137918.50525759</v>
       </c>
       <c r="H150" t="inlineStr">
         <is>
@@ -6172,7 +6172,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>10890440.67723209</v>
+        <v>9708949.693613511</v>
       </c>
       <c r="H151" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>14074617.49951541</v>
+        <v>15435468.14574363</v>
       </c>
       <c r="H152" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>47674011.20149594</v>
+        <v>7137918.50525759</v>
       </c>
       <c r="H154" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>54875518.33297847</v>
+        <v>9708949.693613511</v>
       </c>
       <c r="H155" t="inlineStr">
         <is>
@@ -6362,7 +6362,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>70920172.42599019</v>
+        <v>15435468.14574363</v>
       </c>
       <c r="H156" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1772980376.631191</v>
+        <v>1863018184.557064</v>
       </c>
       <c r="H158" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2018034194.610036</v>
+        <v>2113906127.078216</v>
       </c>
       <c r="H159" t="inlineStr">
         <is>
@@ -6514,7 +6514,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2454671147.085033</v>
+        <v>2563245826.865228</v>
       </c>
       <c r="H160" t="inlineStr">
         <is>
@@ -6590,7 +6590,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>169234036.2906501</v>
+        <v>138642793.1083777</v>
       </c>
       <c r="H162" t="inlineStr">
         <is>
@@ -6628,7 +6628,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>192624846.0658792</v>
+        <v>180325219.4370131</v>
       </c>
       <c r="H163" t="inlineStr">
         <is>
@@ -6666,7 +6666,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>234302596.612333</v>
+        <v>254296336.126149</v>
       </c>
       <c r="H164" t="inlineStr">
         <is>
@@ -6742,7 +6742,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>152637928.5312049</v>
+        <v>138642793.1083777</v>
       </c>
       <c r="H166" t="inlineStr">
         <is>
@@ -6780,7 +6780,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>173734894.7740155</v>
+        <v>180325219.4370131</v>
       </c>
       <c r="H167" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>211325474.3565132</v>
+        <v>254296336.126149</v>
       </c>
       <c r="H168" t="inlineStr">
         <is>
@@ -6894,7 +6894,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>6084377792.346043</v>
+        <v>6393362621.640434</v>
       </c>
       <c r="H170" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>6756246189.781103</v>
+        <v>7077219134.726795</v>
       </c>
       <c r="H171" t="inlineStr">
         <is>
@@ -6970,7 +6970,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>7890021197.727175</v>
+        <v>8239011540.494462</v>
       </c>
       <c r="H172" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>402346131.7042921</v>
+        <v>400335008.280422</v>
       </c>
       <c r="H174" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>446775268.0840904</v>
+        <v>477019783.0122938</v>
       </c>
       <c r="H175" t="inlineStr">
         <is>
@@ -7122,7 +7122,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>521749243.1130494</v>
+        <v>607267159.8462428</v>
       </c>
       <c r="H176" t="inlineStr">
         <is>
@@ -7198,7 +7198,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1130916896.663996</v>
+        <v>400335008.280422</v>
       </c>
       <c r="H178" t="inlineStr">
         <is>
@@ -7236,7 +7236,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1255798577.07998</v>
+        <v>477019783.0122938</v>
       </c>
       <c r="H179" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1466535871.387139</v>
+        <v>607267159.8462428</v>
       </c>
       <c r="H180" t="inlineStr">
         <is>
@@ -7350,7 +7350,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1791918210.068059</v>
+        <v>1882917743.815602</v>
       </c>
       <c r="H182" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1831559073.507738</v>
+        <v>1918572023.17718</v>
       </c>
       <c r="H183" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>2218890206.727457</v>
+        <v>2317035856.073984</v>
       </c>
       <c r="H184" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>78589968.84220833</v>
+        <v>80744581.03144915</v>
       </c>
       <c r="H186" t="inlineStr">
         <is>
@@ -7540,7 +7540,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>80328538.27305542</v>
+        <v>82563446.70903541</v>
       </c>
       <c r="H187" t="inlineStr">
         <is>
@@ -7578,7 +7578,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>97316111.43366234</v>
+        <v>112546172.9551411</v>
       </c>
       <c r="H188" t="inlineStr">
         <is>
@@ -7654,7 +7654,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>324674765.2247452</v>
+        <v>80744581.03144915</v>
       </c>
       <c r="H190" t="inlineStr">
         <is>
@@ -7692,7 +7692,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>331857229.2224156</v>
+        <v>82563446.70903541</v>
       </c>
       <c r="H191" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>402037131.4276454</v>
+        <v>112546172.9551411</v>
       </c>
       <c r="H192" t="inlineStr">
         <is>
@@ -7806,7 +7806,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>2241889858.746414</v>
+        <v>2355740441.163074</v>
       </c>
       <c r="H194" t="inlineStr">
         <is>
@@ -7844,7 +7844,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>2525943354.762117</v>
+        <v>2645944825.189627</v>
       </c>
       <c r="H195" t="inlineStr">
         <is>
@@ -7882,7 +7882,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>3138026936.312561</v>
+        <v>3276827716.268916</v>
       </c>
       <c r="H196" t="inlineStr">
         <is>
@@ -7958,7 +7958,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>138937701.7829422</v>
+        <v>111891884.3732012</v>
       </c>
       <c r="H198" t="inlineStr">
         <is>
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>156541483.5949086</v>
+        <v>143124706.5260101</v>
       </c>
       <c r="H199" t="inlineStr">
         <is>
@@ -8034,7 +8034,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>194474429.2246476</v>
+        <v>210837233.0738918</v>
       </c>
       <c r="H200" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>291043076.7053787</v>
+        <v>111891884.3732012</v>
       </c>
       <c r="H202" t="inlineStr">
         <is>
@@ -8148,7 +8148,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>327919020.0559394</v>
+        <v>143124706.5260101</v>
       </c>
       <c r="H203" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>407379965.954013</v>
+        <v>210837233.0738918</v>
       </c>
       <c r="H204" t="inlineStr">
         <is>
@@ -8262,7 +8262,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1786192636.348765</v>
+        <v>1876901406.524642</v>
       </c>
       <c r="H206" t="inlineStr">
         <is>
@@ -8300,7 +8300,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>2016578942.971009</v>
+        <v>2112381739.947216</v>
       </c>
       <c r="H207" t="inlineStr">
         <is>
@@ -8338,7 +8338,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>2549756336.875975</v>
+        <v>2662536811.817632</v>
       </c>
       <c r="H208" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>72853481.80421843</v>
+        <v>58484151.57537619</v>
       </c>
       <c r="H210" t="inlineStr">
         <is>
@@ -8452,7 +8452,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>82250253.60580559</v>
+        <v>75178579.86672738</v>
       </c>
       <c r="H211" t="inlineStr">
         <is>
@@ -8490,7 +8490,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>103996972.7305011</v>
+        <v>114124701.9341741</v>
       </c>
       <c r="H212" t="inlineStr">
         <is>
@@ -8566,7 +8566,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>111563099.9885922</v>
+        <v>58484151.57537619</v>
       </c>
       <c r="H214" t="inlineStr">
         <is>
@@ -8604,7 +8604,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>125952707.2675918</v>
+        <v>75178579.86672738</v>
       </c>
       <c r="H215" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>159254223.4072331</v>
+        <v>114124701.9341741</v>
       </c>
       <c r="H216" t="inlineStr">
         <is>
@@ -8718,7 +8718,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>1635570628.1995</v>
+        <v>1718630314.596502</v>
       </c>
       <c r="H218" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>2027115891.375776</v>
+        <v>2123419273.331455</v>
       </c>
       <c r="H219" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>2900351259.582839</v>
+        <v>3028639201.384431</v>
       </c>
       <c r="H220" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>58884693.03336774</v>
+        <v>31097415.9771268</v>
       </c>
       <c r="H222" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>72981316.09157534</v>
+        <v>57170271.60240762</v>
       </c>
       <c r="H223" t="inlineStr">
         <is>
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>104420005.2659818</v>
+        <v>114425128.2173746</v>
       </c>
       <c r="H224" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>151415605.2664974</v>
+        <v>31097415.9771268</v>
       </c>
       <c r="H226" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>187663543.4422583</v>
+        <v>57170271.60240762</v>
       </c>
       <c r="H227" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>268504724.824159</v>
+        <v>114425128.2173746</v>
       </c>
       <c r="H228" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>20659841849.70949</v>
+        <v>21709016954.38691</v>
       </c>
       <c r="H230" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>26768864455.51603</v>
+        <v>28040588578.02279</v>
       </c>
       <c r="H231" t="inlineStr">
         <is>
@@ -9250,7 +9250,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>35145427902.55643</v>
+        <v>36699975681.71187</v>
       </c>
       <c r="H232" t="inlineStr">
         <is>
@@ -9326,7 +9326,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>587842822.4376484</v>
+        <v>311562045.6644123</v>
       </c>
       <c r="H234" t="inlineStr">
         <is>
@@ -9364,7 +9364,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>761665309.4177804</v>
+        <v>634366602.401968</v>
       </c>
       <c r="H235" t="inlineStr">
         <is>
@@ -9402,7 +9402,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>1000007051.569379</v>
+        <v>1064713445.478518</v>
       </c>
       <c r="H236" t="inlineStr">
         <is>
@@ -9478,7 +9478,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>667444720.4260896</v>
+        <v>311562045.6644123</v>
       </c>
       <c r="H238" t="inlineStr">
         <is>
@@ -9516,7 +9516,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>864805131.7433981</v>
+        <v>634366602.401968</v>
       </c>
       <c r="H239" t="inlineStr">
         <is>
@@ -9554,7 +9554,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>1135421581.21636</v>
+        <v>1064713445.478518</v>
       </c>
       <c r="H240" t="inlineStr">
         <is>
@@ -9630,7 +9630,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>2226675932.35413</v>
+        <v>2339753901.266229</v>
       </c>
       <c r="H242" t="inlineStr">
         <is>
@@ -9668,7 +9668,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>2791733010.028545</v>
+        <v>2924361505.284724</v>
       </c>
       <c r="H243" t="inlineStr">
         <is>
@@ -9706,7 +9706,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>3711186925.352018</v>
+        <v>3875339639.86249</v>
       </c>
       <c r="H244" t="inlineStr">
         <is>
@@ -9782,7 +9782,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>110479457.2133001</v>
+        <v>63225647.04067714</v>
       </c>
       <c r="H246" t="inlineStr">
         <is>
@@ -9820,7 +9820,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>138515507.8702102</v>
+        <v>115055593.8133745</v>
       </c>
       <c r="H247" t="inlineStr">
         <is>
@@ -9858,7 +9858,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>184135424.0967199</v>
+        <v>197543908.3466513</v>
       </c>
       <c r="H248" t="inlineStr">
         <is>
@@ -9934,7 +9934,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>203801936.1304232</v>
+        <v>63225647.04067714</v>
       </c>
       <c r="H250" t="inlineStr">
         <is>
@@ -9972,7 +9972,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>255520160.9429999</v>
+        <v>115055593.8133745</v>
       </c>
       <c r="H251" t="inlineStr">
         <is>
@@ -10010,7 +10010,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>339675419.1926858</v>
+        <v>197543908.3466513</v>
       </c>
       <c r="H252" t="inlineStr">
         <is>
@@ -10086,7 +10086,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>30078206648.35136</v>
+        <v>31605677470.16875</v>
       </c>
       <c r="H254" t="inlineStr">
         <is>
@@ -10124,7 +10124,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>31803130678.09375</v>
+        <v>33314020634.66166</v>
       </c>
       <c r="H255" t="inlineStr">
         <is>
@@ -10162,7 +10162,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>36440180173.89465</v>
+        <v>38051997259.13298</v>
       </c>
       <c r="H256" t="inlineStr">
         <is>
@@ -10238,7 +10238,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>4831181114.050448</v>
+        <v>5160029888.66075</v>
       </c>
       <c r="H258" t="inlineStr">
         <is>
@@ -10276,7 +10276,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>5108239533.559644</v>
+        <v>5589860022.416557</v>
       </c>
       <c r="H259" t="inlineStr">
         <is>
@@ -10314,7 +10314,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>5853045439.408368</v>
+        <v>6868044163.72913</v>
       </c>
       <c r="H260" t="inlineStr">
         <is>
@@ -10390,7 +10390,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>7438269114.850159</v>
+        <v>5160029888.66075</v>
       </c>
       <c r="H262" t="inlineStr">
         <is>
@@ -10428,7 +10428,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>7864838733.374903</v>
+        <v>5589860022.416557</v>
       </c>
       <c r="H263" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>9011570067.855507</v>
+        <v>6868044163.72913</v>
       </c>
       <c r="H264" t="inlineStr">
         <is>
@@ -10542,7 +10542,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>39356079795.5228</v>
+        <v>41354711703.72112</v>
       </c>
       <c r="H266" t="inlineStr">
         <is>
@@ -10580,7 +10580,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>41436045025.36937</v>
+        <v>43404571485.93726</v>
       </c>
       <c r="H267" t="inlineStr">
         <is>
@@ -10618,7 +10618,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>47390314354.91562</v>
+        <v>49486476283.5218</v>
       </c>
       <c r="H268" t="inlineStr">
         <is>
@@ -10694,7 +10694,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>7307120861.273582</v>
+        <v>7892433328.218813</v>
       </c>
       <c r="H270" t="inlineStr">
         <is>
@@ -10732,7 +10732,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>7693301532.740373</v>
+        <v>8478842253.368262</v>
       </c>
       <c r="H271" t="inlineStr">
         <is>
@@ -10770,7 +10770,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>8798812189.737223</v>
+        <v>10372684203.09881</v>
       </c>
       <c r="H272" t="inlineStr">
         <is>
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>8073923517.337339</v>
+        <v>7892433328.218813</v>
       </c>
       <c r="H274" t="inlineStr">
         <is>
@@ -10884,7 +10884,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>8500629639.282255</v>
+        <v>8478842253.368262</v>
       </c>
       <c r="H275" t="inlineStr">
         <is>
@@ -10922,7 +10922,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>9722151585.018652</v>
+        <v>10372684203.09881</v>
       </c>
       <c r="H276" t="inlineStr">
         <is>
@@ -10998,7 +10998,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>17165482012.66987</v>
+        <v>18037201966.69916</v>
       </c>
       <c r="H278" t="inlineStr">
         <is>
@@ -11036,7 +11036,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>18026814451.07447</v>
+        <v>18883224883.70531</v>
       </c>
       <c r="H279" t="inlineStr">
         <is>
@@ -11074,7 +11074,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>20456332687.91135</v>
+        <v>21361154408.61501</v>
       </c>
       <c r="H280" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>2397421301.265935</v>
+        <v>2620388350.051285</v>
       </c>
       <c r="H282" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>2517719509.83231</v>
+        <v>2800120060.139662</v>
       </c>
       <c r="H283" t="inlineStr">
         <is>
@@ -11226,7 +11226,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>2857038776.748769</v>
+        <v>3377754471.738346</v>
       </c>
       <c r="H284" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>2016360203.994983</v>
+        <v>2620388350.051285</v>
       </c>
       <c r="H286" t="inlineStr">
         <is>
@@ -11340,7 +11340,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>2117537464.844815</v>
+        <v>2800120060.139662</v>
       </c>
       <c r="H287" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>2402923210.728452</v>
+        <v>3377754471.738346</v>
       </c>
       <c r="H288" t="inlineStr">
         <is>
@@ -11454,7 +11454,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>36862480683.59805</v>
+        <v>38734479380.93693</v>
       </c>
       <c r="H290" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>39119502174.67003</v>
+        <v>40977975277.2051</v>
       </c>
       <c r="H291" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>44818162185.36534</v>
+        <v>46800553029.60999</v>
       </c>
       <c r="H292" t="inlineStr">
         <is>
@@ -11606,7 +11606,7 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>4239492759.345248</v>
+        <v>4638232654.606737</v>
       </c>
       <c r="H294" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>4499069057.294827</v>
+        <v>5044504212.394617</v>
       </c>
       <c r="H295" t="inlineStr">
         <is>
@@ -11682,7 +11682,7 @@
         </is>
       </c>
       <c r="G296" t="n">
-        <v>5154462492.714457</v>
+        <v>6166923369.1776</v>
       </c>
       <c r="H296" t="inlineStr">
         <is>
@@ -11758,7 +11758,7 @@
         </is>
       </c>
       <c r="G298" t="n">
-        <v>7666847457.439954</v>
+        <v>4638232654.606737</v>
       </c>
       <c r="H298" t="inlineStr">
         <is>
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="G299" t="n">
-        <v>8136274342.427432</v>
+        <v>5044504212.394617</v>
       </c>
       <c r="H299" t="inlineStr">
         <is>
@@ -11834,7 +11834,7 @@
         </is>
       </c>
       <c r="G300" t="n">
-        <v>9321510826.885035</v>
+        <v>6166923369.1776</v>
       </c>
       <c r="H300" t="inlineStr">
         <is>
@@ -11910,7 +11910,7 @@
         </is>
       </c>
       <c r="G302" t="n">
-        <v>9441630221.37035</v>
+        <v>9921107433.630375</v>
       </c>
       <c r="H302" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         </is>
       </c>
       <c r="G303" t="n">
-        <v>10281601834.54819</v>
+        <v>10770055914.94944</v>
       </c>
       <c r="H303" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         </is>
       </c>
       <c r="G304" t="n">
-        <v>11844839009.35304</v>
+        <v>12368758314.80285</v>
       </c>
       <c r="H304" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         </is>
       </c>
       <c r="G306" t="n">
-        <v>1717572116.151156</v>
+        <v>1784698040.114753</v>
       </c>
       <c r="H306" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         </is>
       </c>
       <c r="G307" t="n">
-        <v>1870375370.178972</v>
+        <v>2041029858.021902</v>
       </c>
       <c r="H307" t="inlineStr">
         <is>
@@ -12138,7 +12138,7 @@
         </is>
       </c>
       <c r="G308" t="n">
-        <v>2154751322.151601</v>
+        <v>2530778309.048388</v>
       </c>
       <c r="H308" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         </is>
       </c>
       <c r="G310" t="n">
-        <v>3641973974.404016</v>
+        <v>1784698040.114753</v>
       </c>
       <c r="H310" t="inlineStr">
         <is>
@@ -12252,7 +12252,7 @@
         </is>
       </c>
       <c r="G311" t="n">
-        <v>3965981024.320851</v>
+        <v>2041029858.021902</v>
       </c>
       <c r="H311" t="inlineStr">
         <is>
@@ -12290,7 +12290,7 @@
         </is>
       </c>
       <c r="G312" t="n">
-        <v>4568977432.035898</v>
+        <v>2530778309.048388</v>
       </c>
       <c r="H312" t="inlineStr">
         <is>
@@ -12366,7 +12366,7 @@
         </is>
       </c>
       <c r="G314" t="n">
-        <v>16175672183.79173</v>
+        <v>16997126320.765</v>
       </c>
       <c r="H314" t="inlineStr">
         <is>
@@ -12404,7 +12404,7 @@
         </is>
       </c>
       <c r="G315" t="n">
-        <v>17677138551.27726</v>
+        <v>18516936726.12741</v>
       </c>
       <c r="H315" t="inlineStr">
         <is>
@@ -12442,7 +12442,7 @@
         </is>
       </c>
       <c r="G316" t="n">
-        <v>20687654759.35499</v>
+        <v>21602708286.40994</v>
       </c>
       <c r="H316" t="inlineStr">
         <is>
@@ -12518,7 +12518,7 @@
         </is>
       </c>
       <c r="G318" t="n">
-        <v>2343229941.09191</v>
+        <v>2379721914.850014</v>
       </c>
       <c r="H318" t="inlineStr">
         <is>
@@ -12556,7 +12556,7 @@
         </is>
       </c>
       <c r="G319" t="n">
-        <v>2560734407.543694</v>
+        <v>2747509771.65208</v>
       </c>
       <c r="H319" t="inlineStr">
         <is>
@@ -12594,7 +12594,7 @@
         </is>
       </c>
       <c r="G320" t="n">
-        <v>2996841892.707665</v>
+        <v>3505633326.815095</v>
       </c>
       <c r="H320" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         </is>
       </c>
       <c r="G322" t="n">
-        <v>1909838657.341041</v>
+        <v>2379721914.850014</v>
       </c>
       <c r="H322" t="inlineStr">
         <is>
@@ -12708,7 +12708,7 @@
         </is>
       </c>
       <c r="G323" t="n">
-        <v>2087114660.386814</v>
+        <v>2747509771.65208</v>
       </c>
       <c r="H323" t="inlineStr">
         <is>
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="G324" t="n">
-        <v>2442562036.385185</v>
+        <v>3505633326.815095</v>
       </c>
       <c r="H324" t="inlineStr">
         <is>
@@ -12822,7 +12822,7 @@
         </is>
       </c>
       <c r="G326" t="n">
-        <v>38290802773.5047</v>
+        <v>40235336390.9602</v>
       </c>
       <c r="H326" t="inlineStr">
         <is>
@@ -12860,7 +12860,7 @@
         </is>
       </c>
       <c r="G327" t="n">
-        <v>40779025640.35164</v>
+        <v>42716338696.172</v>
       </c>
       <c r="H327" t="inlineStr">
         <is>
@@ -12898,7 +12898,7 @@
         </is>
       </c>
       <c r="G328" t="n">
-        <v>46531553697.91998</v>
+        <v>48589731042.13413</v>
       </c>
       <c r="H328" t="inlineStr">
         <is>
@@ -12974,7 +12974,7 @@
         </is>
       </c>
       <c r="G330" t="n">
-        <v>4979836281.528021</v>
+        <v>5904274529.912281</v>
       </c>
       <c r="H330" t="inlineStr">
         <is>
@@ -13012,7 +13012,7 @@
         </is>
       </c>
       <c r="G331" t="n">
-        <v>5303437293.033216</v>
+        <v>6408537326.798635</v>
       </c>
       <c r="H331" t="inlineStr">
         <is>
@@ -13050,7 +13050,7 @@
         </is>
       </c>
       <c r="G332" t="n">
-        <v>6051571201.351501</v>
+        <v>7677773650.836353</v>
       </c>
       <c r="H332" t="inlineStr">
         <is>
@@ -13126,7 +13126,7 @@
         </is>
       </c>
       <c r="G334" t="n">
-        <v>14068869289.42483</v>
+        <v>5904274529.912281</v>
       </c>
       <c r="H334" t="inlineStr">
         <is>
@@ -13164,7 +13164,7 @@
         </is>
       </c>
       <c r="G335" t="n">
-        <v>14983096198.78726</v>
+        <v>6408537326.798635</v>
       </c>
       <c r="H335" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         </is>
       </c>
       <c r="G336" t="n">
-        <v>17096699452.40404</v>
+        <v>7677773650.836353</v>
       </c>
       <c r="H336" t="inlineStr">
         <is>
@@ -13278,7 +13278,7 @@
         </is>
       </c>
       <c r="G338" t="n">
-        <v>5206208064.756614</v>
+        <v>5470596530.604925</v>
       </c>
       <c r="H338" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         </is>
       </c>
       <c r="G339" t="n">
-        <v>6092176635.466681</v>
+        <v>6381601239.142711</v>
       </c>
       <c r="H339" t="inlineStr">
         <is>
@@ -13354,7 +13354,7 @@
         </is>
       </c>
       <c r="G340" t="n">
-        <v>7532281036.339429</v>
+        <v>7865447865.022838</v>
       </c>
       <c r="H340" t="inlineStr">
         <is>
@@ -13430,7 +13430,7 @@
         </is>
       </c>
       <c r="G342" t="n">
-        <v>132595075.4917044</v>
+        <v>100437038.1562123</v>
       </c>
       <c r="H342" t="inlineStr">
         <is>
@@ -13468,7 +13468,7 @@
         </is>
       </c>
       <c r="G343" t="n">
-        <v>155159496.286145</v>
+        <v>141251742.6066224</v>
       </c>
       <c r="H343" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         </is>
       </c>
       <c r="G344" t="n">
-        <v>191837006.9377645</v>
+        <v>206670349.7318346</v>
       </c>
       <c r="H344" t="inlineStr">
         <is>
@@ -13582,7 +13582,7 @@
         </is>
       </c>
       <c r="G346" t="n">
-        <v>113278542.079574</v>
+        <v>100437038.1562123</v>
       </c>
       <c r="H346" t="inlineStr">
         <is>
@@ -13620,7 +13620,7 @@
         </is>
       </c>
       <c r="G347" t="n">
-        <v>132555763.9596896</v>
+        <v>141251742.6066224</v>
       </c>
       <c r="H347" t="inlineStr">
         <is>
@@ -13658,7 +13658,7 @@
         </is>
       </c>
       <c r="G348" t="n">
-        <v>163890071.952021</v>
+        <v>206670349.7318346</v>
       </c>
       <c r="H348" t="inlineStr">
         <is>
@@ -13734,7 +13734,7 @@
         </is>
       </c>
       <c r="G350" t="n">
-        <v>19453585198.48676</v>
+        <v>20441502600.53892</v>
       </c>
       <c r="H350" t="inlineStr">
         <is>
@@ -13772,7 +13772,7 @@
         </is>
       </c>
       <c r="G351" t="n">
-        <v>24166094124.09841</v>
+        <v>25314166911.99928</v>
       </c>
       <c r="H351" t="inlineStr">
         <is>
@@ -13810,7 +13810,7 @@
         </is>
       </c>
       <c r="G352" t="n">
-        <v>30482115508.31224</v>
+        <v>31830396288.92438</v>
       </c>
       <c r="H352" t="inlineStr">
         <is>
@@ -13886,7 +13886,7 @@
         </is>
       </c>
       <c r="G354" t="n">
-        <v>1429282015.766982</v>
+        <v>1006823970.76624</v>
       </c>
       <c r="H354" t="inlineStr">
         <is>
@@ -13924,7 +13924,7 @@
         </is>
       </c>
       <c r="G355" t="n">
-        <v>1775516614.057998</v>
+        <v>1642799544.168783</v>
       </c>
       <c r="H355" t="inlineStr">
         <is>
@@ -13962,7 +13962,7 @@
         </is>
       </c>
       <c r="G356" t="n">
-        <v>2239563507.396647</v>
+        <v>2473146824.93928</v>
       </c>
       <c r="H356" t="inlineStr">
         <is>
@@ -14038,7 +14038,7 @@
         </is>
       </c>
       <c r="G358" t="n">
-        <v>777193225.4769684</v>
+        <v>1006823970.76624</v>
       </c>
       <c r="H358" t="inlineStr">
         <is>
@@ -14076,7 +14076,7 @@
         </is>
       </c>
       <c r="G359" t="n">
-        <v>965463406.7631416</v>
+        <v>1642799544.168783</v>
       </c>
       <c r="H359" t="inlineStr">
         <is>
@@ -14114,7 +14114,7 @@
         </is>
       </c>
       <c r="G360" t="n">
-        <v>1217795765.127629</v>
+        <v>2473146824.93928</v>
       </c>
       <c r="H360" t="inlineStr">
         <is>
@@ -14190,7 +14190,7 @@
         </is>
       </c>
       <c r="G362" t="n">
-        <v>2705064638.247608</v>
+        <v>2842436767.987919</v>
       </c>
       <c r="H362" t="inlineStr">
         <is>
@@ -14228,7 +14228,7 @@
         </is>
       </c>
       <c r="G363" t="n">
-        <v>3402915652.685948</v>
+        <v>3564579959.723254</v>
       </c>
       <c r="H363" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         </is>
       </c>
       <c r="G364" t="n">
-        <v>3815387152.913437</v>
+        <v>3984148837.694301</v>
       </c>
       <c r="H364" t="inlineStr">
         <is>
@@ -14342,7 +14342,7 @@
         </is>
       </c>
       <c r="G366" t="n">
-        <v>121713357.9000627</v>
+        <v>119389137.7272365</v>
       </c>
       <c r="H366" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         </is>
       </c>
       <c r="G367" t="n">
-        <v>153112899.7373624</v>
+        <v>176554897.0578474</v>
       </c>
       <c r="H367" t="inlineStr">
         <is>
@@ -14418,7 +14418,7 @@
         </is>
       </c>
       <c r="G368" t="n">
-        <v>171671898.5209503</v>
+        <v>207716258.9776755</v>
       </c>
       <c r="H368" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         </is>
       </c>
       <c r="G370" t="n">
-        <v>430918030.1467705</v>
+        <v>119389137.7272365</v>
       </c>
       <c r="H370" t="inlineStr">
         <is>
@@ -14532,7 +14532,7 @@
         </is>
       </c>
       <c r="G371" t="n">
-        <v>542086014.9060941</v>
+        <v>176554897.0578474</v>
       </c>
       <c r="H371" t="inlineStr">
         <is>
@@ -14570,7 +14570,7 @@
         </is>
       </c>
       <c r="G372" t="n">
-        <v>607792912.9434204</v>
+        <v>207716258.9776755</v>
       </c>
       <c r="H372" t="inlineStr">
         <is>
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="G374" t="n">
-        <v>4867607190.666233</v>
+        <v>5114800384.154673</v>
       </c>
       <c r="H374" t="inlineStr">
         <is>
@@ -14684,7 +14684,7 @@
         </is>
       </c>
       <c r="G375" t="n">
-        <v>5408940285.744115</v>
+        <v>5665905979.974823</v>
       </c>
       <c r="H375" t="inlineStr">
         <is>
@@ -14722,7 +14722,7 @@
         </is>
       </c>
       <c r="G376" t="n">
-        <v>6894510611.256561</v>
+        <v>7199467665.380604</v>
       </c>
       <c r="H376" t="inlineStr">
         <is>
@@ -14798,7 +14798,7 @@
         </is>
       </c>
       <c r="G378" t="n">
-        <v>199750676.2523937</v>
+        <v>171005960.5555105</v>
       </c>
       <c r="H378" t="inlineStr">
         <is>
@@ -14836,7 +14836,7 @@
         </is>
       </c>
       <c r="G379" t="n">
-        <v>221965215.6726972</v>
+        <v>209877900.6457499</v>
       </c>
       <c r="H379" t="inlineStr">
         <is>
@@ -14874,7 +14874,7 @@
         </is>
       </c>
       <c r="G380" t="n">
-        <v>282928162.2536403</v>
+        <v>319072321.0058105</v>
       </c>
       <c r="H380" t="inlineStr">
         <is>
@@ -14950,7 +14950,7 @@
         </is>
       </c>
       <c r="G382" t="n">
-        <v>147653994.8334478</v>
+        <v>171005960.5555105</v>
       </c>
       <c r="H382" t="inlineStr">
         <is>
@@ -14988,7 +14988,7 @@
         </is>
       </c>
       <c r="G383" t="n">
-        <v>164074792.7517908</v>
+        <v>209877900.6457499</v>
       </c>
       <c r="H383" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         </is>
       </c>
       <c r="G384" t="n">
-        <v>209138082.4906482</v>
+        <v>319072321.0058105</v>
       </c>
       <c r="H384" t="inlineStr">
         <is>
@@ -15102,7 +15102,7 @@
         </is>
       </c>
       <c r="G386" t="n">
-        <v>15723026452.01717</v>
+        <v>16521493741.53676</v>
       </c>
       <c r="H386" t="inlineStr">
         <is>
@@ -15140,7 +15140,7 @@
         </is>
       </c>
       <c r="G387" t="n">
-        <v>17482722939.93116</v>
+        <v>18313284898.46173</v>
       </c>
       <c r="H387" t="inlineStr">
         <is>
@@ -15178,7 +15178,7 @@
         </is>
       </c>
       <c r="G388" t="n">
-        <v>18889382323.24009</v>
+        <v>19724894908.87786</v>
       </c>
       <c r="H388" t="inlineStr">
         <is>
@@ -15254,7 +15254,7 @@
         </is>
       </c>
       <c r="G390" t="n">
-        <v>1758408457.685734</v>
+        <v>1956198748.248538</v>
       </c>
       <c r="H390" t="inlineStr">
         <is>
@@ -15292,7 +15292,7 @@
         </is>
       </c>
       <c r="G391" t="n">
-        <v>1955206777.446294</v>
+        <v>2292550994.674184</v>
       </c>
       <c r="H391" t="inlineStr">
         <is>
@@ -15330,7 +15330,7 @@
         </is>
       </c>
       <c r="G392" t="n">
-        <v>2112522658.345044</v>
+        <v>2541989985.228759</v>
       </c>
       <c r="H392" t="inlineStr">
         <is>
@@ -15406,7 +15406,7 @@
         </is>
       </c>
       <c r="G394" t="n">
-        <v>851777228.4000537</v>
+        <v>1956198748.248538</v>
       </c>
       <c r="H394" t="inlineStr">
         <is>
@@ -15444,7 +15444,7 @@
         </is>
       </c>
       <c r="G395" t="n">
-        <v>947106801.3594877</v>
+        <v>2292550994.674184</v>
       </c>
       <c r="H395" t="inlineStr">
         <is>
@@ -15482,7 +15482,7 @@
         </is>
       </c>
       <c r="G396" t="n">
-        <v>1023310987.269516</v>
+        <v>2541989985.228759</v>
       </c>
       <c r="H396" t="inlineStr">
         <is>
@@ -15558,7 +15558,7 @@
         </is>
       </c>
       <c r="G398" t="n">
-        <v>3620235423.246019</v>
+        <v>3804082952.514227</v>
       </c>
       <c r="H398" t="inlineStr">
         <is>
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="G399" t="n">
-        <v>4340455764.391962</v>
+        <v>4546660338.643648</v>
       </c>
       <c r="H399" t="inlineStr">
         <is>
@@ -15634,7 +15634,7 @@
         </is>
       </c>
       <c r="G400" t="n">
-        <v>5270224766.963371</v>
+        <v>5503336630.897655</v>
       </c>
       <c r="H400" t="inlineStr">
         <is>
@@ -15710,7 +15710,7 @@
         </is>
       </c>
       <c r="G402" t="n">
-        <v>127992798.8537721</v>
+        <v>97125377.12778434</v>
       </c>
       <c r="H402" t="inlineStr">
         <is>
@@ -15748,7 +15748,7 @@
         </is>
       </c>
       <c r="G403" t="n">
-        <v>153456064.768129</v>
+        <v>143478014.788375</v>
       </c>
       <c r="H403" t="inlineStr">
         <is>
@@ -15786,7 +15786,7 @@
         </is>
       </c>
       <c r="G404" t="n">
-        <v>186327887.4574645</v>
+        <v>201796923.324659</v>
       </c>
       <c r="H404" t="inlineStr">
         <is>
@@ -15862,7 +15862,7 @@
         </is>
       </c>
       <c r="G406" t="n">
-        <v>85224479.6718991</v>
+        <v>97125377.12778434</v>
       </c>
       <c r="H406" t="inlineStr">
         <is>
@@ -15900,7 +15900,7 @@
         </is>
       </c>
       <c r="G407" t="n">
-        <v>102179289.6903716</v>
+        <v>143478014.788375</v>
       </c>
       <c r="H407" t="inlineStr">
         <is>
@@ -15938,7 +15938,7 @@
         </is>
       </c>
       <c r="G408" t="n">
-        <v>124067114.7059505</v>
+        <v>201796923.324659</v>
       </c>
       <c r="H408" t="inlineStr">
         <is>
@@ -16014,7 +16014,7 @@
         </is>
       </c>
       <c r="G410" t="n">
-        <v>1981406123.075141</v>
+        <v>2082028479.805092</v>
       </c>
       <c r="H410" t="inlineStr">
         <is>
@@ -16052,7 +16052,7 @@
         </is>
       </c>
       <c r="G411" t="n">
-        <v>2708980710.338056</v>
+        <v>2837677843.623907</v>
       </c>
       <c r="H411" t="inlineStr">
         <is>
@@ -16090,7 +16090,7 @@
         </is>
       </c>
       <c r="G412" t="n">
-        <v>3546828321.031961</v>
+        <v>3703711148.146575</v>
       </c>
       <c r="H412" t="inlineStr">
         <is>
@@ -16166,7 +16166,7 @@
         </is>
       </c>
       <c r="G414" t="n">
-        <v>172053343.9211495</v>
+        <v>45413377.60900832</v>
       </c>
       <c r="H414" t="inlineStr">
         <is>
@@ -16204,7 +16204,7 @@
         </is>
       </c>
       <c r="G415" t="n">
-        <v>235231527.9556032</v>
+        <v>163972989.9537407</v>
       </c>
       <c r="H415" t="inlineStr">
         <is>
@@ -16242,7 +16242,7 @@
         </is>
       </c>
       <c r="G416" t="n">
-        <v>307985155.5120298</v>
+        <v>295883949.8167284</v>
       </c>
       <c r="H416" t="inlineStr">
         <is>
@@ -16318,7 +16318,7 @@
         </is>
       </c>
       <c r="G418" t="n">
-        <v>190948447.0504214</v>
+        <v>45413377.60900832</v>
       </c>
       <c r="H418" t="inlineStr">
         <is>
@@ -16356,7 +16356,7 @@
         </is>
       </c>
       <c r="G419" t="n">
-        <v>261064934.4949977</v>
+        <v>163972989.9537407</v>
       </c>
       <c r="H419" t="inlineStr">
         <is>
@@ -16394,7 +16394,7 @@
         </is>
       </c>
       <c r="G420" t="n">
-        <v>341808452.0726104</v>
+        <v>295883949.8167284</v>
       </c>
       <c r="H420" t="inlineStr">
         <is>
@@ -16470,7 +16470,7 @@
         </is>
       </c>
       <c r="G422" t="n">
-        <v>5003622266.265998</v>
+        <v>5257722755.183811</v>
       </c>
       <c r="H422" t="inlineStr">
         <is>
@@ -16508,7 +16508,7 @@
         </is>
       </c>
       <c r="G423" t="n">
-        <v>5964305027.724431</v>
+        <v>6247654760.035641</v>
       </c>
       <c r="H423" t="inlineStr">
         <is>
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="G424" t="n">
-        <v>6811130418.920482</v>
+        <v>7112399411.735924</v>
       </c>
       <c r="H424" t="inlineStr">
         <is>
@@ -16622,7 +16622,7 @@
         </is>
       </c>
       <c r="G426" t="n">
-        <v>193494805.8160842</v>
+        <v>159263591.9024356</v>
       </c>
       <c r="H426" t="inlineStr">
         <is>
@@ -16660,7 +16660,7 @@
         </is>
       </c>
       <c r="G427" t="n">
-        <v>230645316.8833353</v>
+        <v>226572478.5437256</v>
       </c>
       <c r="H427" t="inlineStr">
         <is>
@@ -16698,7 +16698,7 @@
         </is>
       </c>
       <c r="G428" t="n">
-        <v>263392855.7481923</v>
+        <v>283126174.0096685</v>
       </c>
       <c r="H428" t="inlineStr">
         <is>
@@ -16774,7 +16774,7 @@
         </is>
       </c>
       <c r="G430" t="n">
-        <v>214967835.9029092</v>
+        <v>159263591.9024356</v>
       </c>
       <c r="H430" t="inlineStr">
         <is>
@@ -16812,7 +16812,7 @@
         </is>
       </c>
       <c r="G431" t="n">
-        <v>256241114.1861767</v>
+        <v>226572478.5437256</v>
       </c>
       <c r="H431" t="inlineStr">
         <is>
@@ -16850,7 +16850,7 @@
         </is>
       </c>
       <c r="G432" t="n">
-        <v>292622801.7009096</v>
+        <v>283126174.0096685</v>
       </c>
       <c r="H432" t="inlineStr">
         <is>
@@ -16926,7 +16926,7 @@
         </is>
       </c>
       <c r="G434" t="n">
-        <v>6284040213.683768</v>
+        <v>6603164561.147323</v>
       </c>
       <c r="H434" t="inlineStr">
         <is>
@@ -16964,7 +16964,7 @@
         </is>
       </c>
       <c r="G435" t="n">
-        <v>7210797103.82589</v>
+        <v>7553364665.280581</v>
       </c>
       <c r="H435" t="inlineStr">
         <is>
@@ -17002,7 +17002,7 @@
         </is>
       </c>
       <c r="G436" t="n">
-        <v>7958170918.029799</v>
+        <v>8310175649.941537</v>
       </c>
       <c r="H436" t="inlineStr">
         <is>
@@ -17078,7 +17078,7 @@
         </is>
       </c>
       <c r="G438" t="n">
-        <v>491168123.972244</v>
+        <v>446645825.2504382</v>
       </c>
       <c r="H438" t="inlineStr">
         <is>
@@ -17116,7 +17116,7 @@
         </is>
       </c>
       <c r="G439" t="n">
-        <v>563604554.6173334</v>
+        <v>575413400.0894129</v>
       </c>
       <c r="H439" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         </is>
       </c>
       <c r="G440" t="n">
-        <v>622020188.7867597</v>
+        <v>673132013.1903226</v>
       </c>
       <c r="H440" t="inlineStr">
         <is>
@@ -17230,7 +17230,7 @@
         </is>
       </c>
       <c r="G442" t="n">
-        <v>271911352.6855142</v>
+        <v>446645825.2504382</v>
       </c>
       <c r="H442" t="inlineStr">
         <is>
@@ -17268,7 +17268,7 @@
         </is>
       </c>
       <c r="G443" t="n">
-        <v>312012260.8656422</v>
+        <v>575413400.0894129</v>
       </c>
       <c r="H443" t="inlineStr">
         <is>
@@ -17306,7 +17306,7 @@
         </is>
       </c>
       <c r="G444" t="n">
-        <v>344351236.7269676</v>
+        <v>673132013.1903226</v>
       </c>
       <c r="H444" t="inlineStr">
         <is>
@@ -17382,7 +17382,7 @@
         </is>
       </c>
       <c r="G446" t="n">
-        <v>12807943312.71634</v>
+        <v>13458373038.3442</v>
       </c>
       <c r="H446" t="inlineStr">
         <is>
@@ -17420,7 +17420,7 @@
         </is>
       </c>
       <c r="G447" t="n">
-        <v>15750725048.10966</v>
+        <v>16499003968.34323</v>
       </c>
       <c r="H447" t="inlineStr">
         <is>
@@ -17458,7 +17458,7 @@
         </is>
       </c>
       <c r="G448" t="n">
-        <v>18289345172.0223</v>
+        <v>19098316996.12994</v>
       </c>
       <c r="H448" t="inlineStr">
         <is>
@@ -17534,7 +17534,7 @@
         </is>
       </c>
       <c r="G450" t="n">
-        <v>1112043801.783253</v>
+        <v>894159152.5018289</v>
       </c>
       <c r="H450" t="inlineStr">
         <is>
@@ -17572,7 +17572,7 @@
         </is>
       </c>
       <c r="G451" t="n">
-        <v>1367549475.796972</v>
+        <v>1360735344.459576</v>
       </c>
       <c r="H451" t="inlineStr">
         <is>
@@ -17610,7 +17610,7 @@
         </is>
       </c>
       <c r="G452" t="n">
-        <v>1587964003.325091</v>
+        <v>1744416238.279269</v>
       </c>
       <c r="H452" t="inlineStr">
         <is>
@@ -17686,7 +17686,7 @@
         </is>
       </c>
       <c r="G454" t="n">
-        <v>1056482852.886645</v>
+        <v>894159152.5018289</v>
       </c>
       <c r="H454" t="inlineStr">
         <is>
@@ -17724,7 +17724,7 @@
         </is>
       </c>
       <c r="G455" t="n">
-        <v>1299222718.868428</v>
+        <v>1360735344.459576</v>
       </c>
       <c r="H455" t="inlineStr">
         <is>
@@ -17762,7 +17762,7 @@
         </is>
       </c>
       <c r="G456" t="n">
-        <v>1508624694.300647</v>
+        <v>1744416238.279269</v>
       </c>
       <c r="H456" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
         </is>
       </c>
       <c r="G458" t="n">
-        <v>12707729524.7958</v>
+        <v>13353070062.80081</v>
       </c>
       <c r="H458" t="inlineStr">
         <is>
@@ -17876,7 +17876,7 @@
         </is>
       </c>
       <c r="G459" t="n">
-        <v>14290970495.65905</v>
+        <v>14969900001.37505</v>
       </c>
       <c r="H459" t="inlineStr">
         <is>
@@ -17914,7 +17914,7 @@
         </is>
       </c>
       <c r="G460" t="n">
-        <v>15911035415.82937</v>
+        <v>16614810166.79611</v>
       </c>
       <c r="H460" t="inlineStr">
         <is>
@@ -17990,7 +17990,7 @@
         </is>
       </c>
       <c r="G462" t="n">
-        <v>2017039671.113369</v>
+        <v>2168966506.178616</v>
       </c>
       <c r="H462" t="inlineStr">
         <is>
@@ -18028,7 +18028,7 @@
         </is>
       </c>
       <c r="G463" t="n">
-        <v>2268340254.819689</v>
+        <v>2604444604.011071</v>
       </c>
       <c r="H463" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         </is>
       </c>
       <c r="G464" t="n">
-        <v>2525485735.244538</v>
+        <v>3033281585.728592</v>
       </c>
       <c r="H464" t="inlineStr">
         <is>
@@ -18142,7 +18142,7 @@
         </is>
       </c>
       <c r="G466" t="n">
-        <v>5140935006.036223</v>
+        <v>2168966506.178616</v>
       </c>
       <c r="H466" t="inlineStr">
         <is>
@@ -18180,7 +18180,7 @@
         </is>
       </c>
       <c r="G467" t="n">
-        <v>5781438009.678207</v>
+        <v>2604444604.011071</v>
       </c>
       <c r="H467" t="inlineStr">
         <is>
@@ -18218,7 +18218,7 @@
         </is>
       </c>
       <c r="G468" t="n">
-        <v>6436838208.738451</v>
+        <v>3033281585.728592</v>
       </c>
       <c r="H468" t="inlineStr">
         <is>
@@ -18294,7 +18294,7 @@
         </is>
       </c>
       <c r="G470" t="n">
-        <v>64401892141.55869</v>
+        <v>66717248929.51183</v>
       </c>
       <c r="H470" t="inlineStr">
         <is>
@@ -18332,7 +18332,7 @@
         </is>
       </c>
       <c r="G471" t="n">
-        <v>68236539889.92902</v>
+        <v>70679314239.44304</v>
       </c>
       <c r="H471" t="inlineStr">
         <is>
@@ -18370,7 +18370,7 @@
         </is>
       </c>
       <c r="G472" t="n">
-        <v>71489653121.27844</v>
+        <v>74037942020.68681</v>
       </c>
       <c r="H472" t="inlineStr">
         <is>
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="G474" t="n">
-        <v>63665762061.65542</v>
+        <v>66898920043.27589</v>
       </c>
       <c r="H474" t="inlineStr">
         <is>
@@ -18484,7 +18484,7 @@
         </is>
       </c>
       <c r="G475" t="n">
-        <v>67456578806.62598</v>
+        <v>70661278006.05307</v>
       </c>
       <c r="H475" t="inlineStr">
         <is>
@@ -18522,7 +18522,7 @@
         </is>
       </c>
       <c r="G476" t="n">
-        <v>70672508122.66956</v>
+        <v>73798484874.29846</v>
       </c>
       <c r="H476" t="inlineStr">
         <is>
@@ -18598,7 +18598,7 @@
         </is>
       </c>
       <c r="G478" t="n">
-        <v>32034257672.628</v>
+        <v>38374360128.27209</v>
       </c>
       <c r="H478" t="inlineStr">
         <is>
@@ -18636,7 +18636,7 @@
         </is>
       </c>
       <c r="G479" t="n">
-        <v>33941656507.82137</v>
+        <v>41281745353.7597</v>
       </c>
       <c r="H479" t="inlineStr">
         <is>
@@ -18674,7 +18674,7 @@
         </is>
       </c>
       <c r="G480" t="n">
-        <v>35559793243.03129</v>
+        <v>43520530653.96541</v>
       </c>
       <c r="H480" t="inlineStr">
         <is>
@@ -18750,7 +18750,7 @@
         </is>
       </c>
       <c r="G482" t="n">
-        <v>48822778371.68188</v>
+        <v>38374360128.27209</v>
       </c>
       <c r="H482" t="inlineStr">
         <is>
@@ -18788,7 +18788,7 @@
         </is>
       </c>
       <c r="G483" t="n">
-        <v>51729807201.52805</v>
+        <v>41281745353.7597</v>
       </c>
       <c r="H483" t="inlineStr">
         <is>
@@ -18826,7 +18826,7 @@
         </is>
       </c>
       <c r="G484" t="n">
-        <v>54195977387.383</v>
+        <v>43520530653.96541</v>
       </c>
       <c r="H484" t="inlineStr">
         <is>
@@ -18938,13 +18938,13 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>17622452013.3</v>
+        <v>14517983791.9</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>5642598512.5</v>
+        <v>1929753705.2</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>32</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="3">
@@ -18962,13 +18962,13 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>27692163007.6</v>
+        <v>28332164153.4</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>1747981915.8</v>
+        <v>1070451731.5</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>6.3</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="4">
@@ -18986,13 +18986,13 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>7736322540.3</v>
+        <v>7935565030.6</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>451752980.6</v>
+        <v>281060933.9</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>5.8</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="5">
@@ -19010,13 +19010,13 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>10525771892.1</v>
+        <v>10191048536.4</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>2135532924.3</v>
+        <v>1374725481.8</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>20.3</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="6">
@@ -19034,13 +19034,13 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>2634996673.4</v>
+        <v>2709632313.1</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>79581860.8</v>
+        <v>24445084</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>3</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="7">
@@ -19058,13 +19058,13 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>79397482925.3</v>
+        <v>79361577103.60001</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>18700399969.1</v>
+        <v>15582095510.2</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>23.6</v>
+        <v>19.6</v>
       </c>
     </row>
     <row r="8">
@@ -19082,13 +19082,13 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>317759184.8</v>
+        <v>332771138</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>7305141.9</v>
+        <v>6551211.9</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -19106,13 +19106,13 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>3816708981.4</v>
+        <v>3114816367</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>947364594.7</v>
+        <v>99757181.5</v>
       </c>
       <c r="F9" s="3" t="n">
-        <v>24.8</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="10">
@@ -19130,13 +19130,13 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>4439688536.4</v>
+        <v>3876176854.4</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>1027533481.5</v>
+        <v>290741279.6</v>
       </c>
       <c r="F10" s="3" t="n">
-        <v>23.1</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="11">
@@ -19154,13 +19154,13 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>9921898913.700001</v>
+        <v>9381664478.299999</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>1179214681.1</v>
+        <v>194997822.7</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>11.9</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="12">
@@ -19178,13 +19178,13 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>4489676407.8</v>
+        <v>4478443275.7</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>420622391.7</v>
+        <v>202749237.6</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>9.4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="13">
@@ -19202,13 +19202,13 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>6354131026.4</v>
+        <v>6430112240.5</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>833501536.5</v>
+        <v>629126924.7</v>
       </c>
       <c r="F13" s="3" t="n">
-        <v>13.1</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="14">
@@ -19226,13 +19226,13 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>814039728.6</v>
+        <v>809618416.9</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>57135261.1</v>
+        <v>14275837</v>
       </c>
       <c r="F14" s="3" t="n">
-        <v>7</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="15">
@@ -19250,13 +19250,13 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>2094852341.5</v>
+        <v>2140303770.8</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>321871964.8</v>
+        <v>277285586.2</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v>15.4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
@@ -19274,13 +19274,13 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>7617640820.7</v>
+        <v>7194032638.2</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>1533263028.4</v>
+        <v>800670016.6</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>20.1</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="17">
@@ -19298,13 +19298,13 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>2195182944.1</v>
+        <v>2044406905.9</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>403264734.1</v>
+        <v>161489162.1</v>
       </c>
       <c r="F17" s="3" t="n">
-        <v>18.4</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="18">
@@ -19322,13 +19322,13 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>2671870637.2</v>
+        <v>2579524209.9</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>429980778.5</v>
+        <v>223783768.7</v>
       </c>
       <c r="F18" s="3" t="n">
-        <v>16.1</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="19">
@@ -19346,13 +19346,13 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>1970609218.1</v>
+        <v>1993869709.7</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>184416581.8</v>
+        <v>116968303.2</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>9.4</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="20">
@@ -19370,13 +19370,13 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>1845870926.5</v>
+        <v>1780825146.6</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>210300298.3</v>
+        <v>62194832</v>
       </c>
       <c r="F20" s="3" t="n">
-        <v>11.4</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="21">
@@ -19394,13 +19394,13 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>21915129392.6</v>
+        <v>22332141045.7</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>1255287542.9</v>
+        <v>623124091.3</v>
       </c>
       <c r="F21" s="3" t="n">
-        <v>5.7</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="22">
@@ -19418,13 +19418,13 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>2540957325.7</v>
+        <v>2466205195.3</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>314281393.3</v>
+        <v>126451294.1</v>
       </c>
       <c r="F22" s="3" t="n">
-        <v>12.4</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="23">
@@ -19442,13 +19442,13 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>42347656877.3</v>
+        <v>41925737247.5</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>12269450228.9</v>
+        <v>10320059777.3</v>
       </c>
       <c r="F23" s="3" t="n">
-        <v>29</v>
+        <v>24.6</v>
       </c>
     </row>
     <row r="24">
@@ -19466,13 +19466,13 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>54737124174.1</v>
+        <v>57139578360.2</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>15381044378.6</v>
+        <v>15784866656.4</v>
       </c>
       <c r="F24" s="3" t="n">
-        <v>28.1</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="25">
@@ -19490,13 +19490,13 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>21579263517.9</v>
+        <v>23277978666.8</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>4413781505.3</v>
+        <v>5240776700.1</v>
       </c>
       <c r="F25" s="3" t="n">
-        <v>20.5</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="26">
@@ -19514,13 +19514,13 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>48768820900.4</v>
+        <v>48010944690.2</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>11906340216.8</v>
+        <v>9276465309.200001</v>
       </c>
       <c r="F26" s="3" t="n">
-        <v>24.4</v>
+        <v>19.3</v>
       </c>
     </row>
     <row r="27">
@@ -19538,13 +19538,13 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>14801176311.9</v>
+        <v>13490503513.9</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>5359546090.6</v>
+        <v>3569396080.2</v>
       </c>
       <c r="F27" s="3" t="n">
-        <v>36.2</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="28">
@@ -19562,13 +19562,13 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>20428740782.2</v>
+        <v>21756570150.5</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>4253068598.4</v>
+        <v>4759443829.7</v>
       </c>
       <c r="F28" s="3" t="n">
-        <v>20.8</v>
+        <v>21.9</v>
       </c>
     </row>
     <row r="29">
@@ -19586,13 +19586,13 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>57339508344.5</v>
+        <v>52043885450.8</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>19048705571</v>
+        <v>11808549059.8</v>
       </c>
       <c r="F29" s="3" t="n">
-        <v>33.2</v>
+        <v>22.7</v>
       </c>
     </row>
     <row r="30">
@@ -19610,13 +19610,13 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>5452081682.3</v>
+        <v>5671470606.9</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>245873617.6</v>
+        <v>200874076.3</v>
       </c>
       <c r="F30" s="3" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="31">
@@ -19634,13 +19634,13 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>21660060439.7</v>
+        <v>22455150542.1</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>2206475241.2</v>
+        <v>2013647941.5</v>
       </c>
       <c r="F31" s="3" t="n">
-        <v>10.2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32">
@@ -19658,13 +19658,13 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>3257696026.3</v>
+        <v>3081215043.4</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>552631388</v>
+        <v>238778275.5</v>
       </c>
       <c r="F32" s="3" t="n">
-        <v>17</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="33">
@@ -19682,13 +19682,13 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>5215011861.8</v>
+        <v>5456812305.3</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>347404671.1</v>
+        <v>342011921.1</v>
       </c>
       <c r="F33" s="3" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="34">
@@ -19706,13 +19706,13 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>18333212138.1</v>
+        <v>20433891238</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>2610185686.1</v>
+        <v>3912397496.5</v>
       </c>
       <c r="F34" s="3" t="n">
-        <v>14.2</v>
+        <v>19.1</v>
       </c>
     </row>
     <row r="35">
@@ -19730,13 +19730,13 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>3833452701.8</v>
+        <v>3998333706.8</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>213217278.5</v>
+        <v>194250754.3</v>
       </c>
       <c r="F35" s="3" t="n">
-        <v>5.6</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="36">
@@ -19754,13 +19754,13 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>2344407914</v>
+        <v>2172855235</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>363001791</v>
+        <v>90826755.2</v>
       </c>
       <c r="F36" s="3" t="n">
-        <v>15.5</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="37">
@@ -19778,13 +19778,13 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>5412084908</v>
+        <v>5576249939</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>408462641.7</v>
+        <v>318527183.8</v>
       </c>
       <c r="F37" s="3" t="n">
-        <v>7.5</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="38">
@@ -19802,13 +19802,13 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>7047119690.3</v>
+        <v>7496456211.6</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>763079476.7</v>
+        <v>893291650.5</v>
       </c>
       <c r="F38" s="3" t="n">
-        <v>10.8</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="39">
@@ -19826,13 +19826,13 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>14976469967.4</v>
+        <v>15246691343.3</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>2168526654.7</v>
+        <v>1788318305</v>
       </c>
       <c r="F39" s="3" t="n">
-        <v>14.5</v>
+        <v>11.7</v>
       </c>
     </row>
     <row r="40">
@@ -19850,13 +19850,13 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>19865704201.9</v>
+        <v>17691003075.2</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>7157974677.1</v>
+        <v>4337933012.4</v>
       </c>
       <c r="F40" s="3" t="n">
-        <v>36</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="41">
@@ -19874,13 +19874,13 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>208924690247.5</v>
+        <v>210364889229.3</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>80857036044.3</v>
+        <v>76748720256.5</v>
       </c>
       <c r="F41" s="3" t="n">
-        <v>38.7</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="42">
@@ -19898,13 +19898,13 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>18699773322</v>
+        <v>15437597798</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>5987550032.8</v>
+        <v>2121447471.4</v>
       </c>
       <c r="F42" s="3" t="n">
-        <v>32</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="43">
@@ -19922,13 +19922,13 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>33339201093.5</v>
+        <v>34419006348.7</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>2104433683.3</v>
+        <v>1700350548.6</v>
       </c>
       <c r="F43" s="3" t="n">
-        <v>6.3</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="44">
@@ -19946,13 +19946,13 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>8246176597.2</v>
+        <v>8439928723.7</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>481525277.3</v>
+        <v>306397565.7</v>
       </c>
       <c r="F44" s="3" t="n">
-        <v>5.8</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="45">
@@ -19970,13 +19970,13 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>12063818848.7</v>
+        <v>11807399389</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>2447581289.8</v>
+        <v>1734317600.1</v>
       </c>
       <c r="F45" s="3" t="n">
-        <v>20.3</v>
+        <v>14.7</v>
       </c>
     </row>
     <row r="46">
@@ -19994,13 +19994,13 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>3360432140.5</v>
+        <v>3454079417.1</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>101491377.8</v>
+        <v>40314246.8</v>
       </c>
       <c r="F46" s="3" t="n">
-        <v>3</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="47">
@@ -20018,13 +20018,13 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>75621020808.10001</v>
+        <v>74732081520</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>17810934088.6</v>
+        <v>14175577150.7</v>
       </c>
       <c r="F47" s="3" t="n">
-        <v>23.6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48">
@@ -20042,13 +20042,13 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>388680893.2</v>
+        <v>407607396.5</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>8935600.300000001</v>
+        <v>9821321.6</v>
       </c>
       <c r="F48" s="3" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="49">
@@ -20066,13 +20066,13 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>4326133514.4</v>
+        <v>3532953266.4</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>1073811428.5</v>
+        <v>126121210.2</v>
       </c>
       <c r="F49" s="3" t="n">
-        <v>24.8</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="50">
@@ -20090,13 +20090,13 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>5162897787.9</v>
+        <v>4535888018.7</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>1194914980</v>
+        <v>379395927.4</v>
       </c>
       <c r="F50" s="3" t="n">
-        <v>23.1</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="51">
@@ -20114,13 +20114,13 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>11177558820.4</v>
+        <v>10547143021.2</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>1328449480.8</v>
+        <v>230126275.5</v>
       </c>
       <c r="F51" s="3" t="n">
-        <v>11.9</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="52">
@@ -20138,13 +20138,13 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>4638388086.7</v>
+        <v>4613090950.2</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>434554679.1</v>
+        <v>209543566.6</v>
       </c>
       <c r="F52" s="3" t="n">
-        <v>9.4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="53">
@@ -20162,13 +20162,13 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>7442917360.9</v>
+        <v>7608863531.4</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>976322809.6</v>
+        <v>835056685.3</v>
       </c>
       <c r="F53" s="3" t="n">
-        <v>13.1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54">
@@ -20186,13 +20186,13 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>937006367.2</v>
+        <v>932048836</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>65765959</v>
+        <v>19417899.4</v>
       </c>
       <c r="F54" s="3" t="n">
-        <v>7</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="55">
@@ -20210,13 +20210,13 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>2384393935.4</v>
+        <v>2474556566</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>366359740.8</v>
+        <v>360650438.9</v>
       </c>
       <c r="F55" s="3" t="n">
-        <v>15.4</v>
+        <v>14.6</v>
       </c>
     </row>
     <row r="56">
@@ -20234,13 +20234,13 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>8458820034.9</v>
+        <v>8031258700.8</v>
       </c>
       <c r="E56" s="2" t="n">
-        <v>1702573845.2</v>
+        <v>954039566</v>
       </c>
       <c r="F56" s="3" t="n">
-        <v>20.1</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="57">
@@ -20258,13 +20258,13 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>2243744841</v>
+        <v>2083698916.6</v>
       </c>
       <c r="E57" s="2" t="n">
-        <v>412185767.5</v>
+        <v>165126893.4</v>
       </c>
       <c r="F57" s="3" t="n">
-        <v>18.4</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="58">
@@ -20282,13 +20282,13 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>3010403858.4</v>
+        <v>2932194238.2</v>
       </c>
       <c r="E58" s="2" t="n">
-        <v>484460503.7</v>
+        <v>286249413.1</v>
       </c>
       <c r="F58" s="3" t="n">
-        <v>16.1</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="59">
@@ -20306,13 +20306,13 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>2224781903.8</v>
+        <v>2262738899.7</v>
       </c>
       <c r="E59" s="2" t="n">
-        <v>208202960.9</v>
+        <v>150357159.7</v>
       </c>
       <c r="F59" s="3" t="n">
-        <v>9.4</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="60">
@@ -20330,13 +20330,13 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>2287760750.9</v>
+        <v>2237759816.5</v>
       </c>
       <c r="E60" s="2" t="n">
-        <v>260644859.5</v>
+        <v>114340543.2</v>
       </c>
       <c r="F60" s="3" t="n">
-        <v>11.4</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="61">
@@ -20354,13 +20354,13 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>28395334896.7</v>
+        <v>29309321782.8</v>
       </c>
       <c r="E61" s="2" t="n">
-        <v>1626470441.2</v>
+        <v>1268733204.8</v>
       </c>
       <c r="F61" s="3" t="n">
-        <v>5.7</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="62">
@@ -20378,13 +20378,13 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>3185768678.8</v>
+        <v>3154472692.9</v>
       </c>
       <c r="E62" s="2" t="n">
-        <v>394035668.8</v>
+        <v>230111187.6</v>
       </c>
       <c r="F62" s="3" t="n">
-        <v>12.4</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="63">
@@ -20402,13 +20402,13 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44776208945</v>
+        <v>44493740679.5</v>
       </c>
       <c r="E63" s="2" t="n">
-        <v>12973078266.9</v>
+        <v>11179720044.8</v>
       </c>
       <c r="F63" s="3" t="n">
-        <v>29</v>
+        <v>25.1</v>
       </c>
     </row>
     <row r="64">
@@ -20426,10 +20426,10 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>57629976197.4</v>
+        <v>60362255992.7</v>
       </c>
       <c r="E64" s="2" t="n">
-        <v>16193931172</v>
+        <v>16957684506.7</v>
       </c>
       <c r="F64" s="3" t="n">
         <v>28.1</v>
@@ -20450,13 +20450,13 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>22662071425.8</v>
+        <v>24483465004</v>
       </c>
       <c r="E65" s="2" t="n">
-        <v>4635256974.7</v>
+        <v>5600240120.3</v>
       </c>
       <c r="F65" s="3" t="n">
-        <v>20.5</v>
+        <v>22.9</v>
       </c>
     </row>
     <row r="66">
@@ -20474,13 +20474,13 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>51754845574.4</v>
+        <v>51066983702</v>
       </c>
       <c r="E66" s="2" t="n">
-        <v>12635343399.7</v>
+        <v>10089008424.8</v>
       </c>
       <c r="F66" s="3" t="n">
-        <v>24.4</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="67">
@@ -20498,13 +20498,13 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>16117958229</v>
+        <v>14852115631</v>
       </c>
       <c r="E67" s="2" t="n">
-        <v>5836356394.5</v>
+        <v>4082059716</v>
       </c>
       <c r="F67" s="3" t="n">
-        <v>36.2</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="68">
@@ -20522,13 +20522,13 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>22324987619.2</v>
+        <v>24011956269.4</v>
       </c>
       <c r="E68" s="2" t="n">
-        <v>4647849067.9</v>
+        <v>5495019543.3</v>
       </c>
       <c r="F68" s="3" t="n">
-        <v>20.8</v>
+        <v>22.9</v>
       </c>
     </row>
     <row r="69">
@@ -20546,13 +20546,13 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>61065559132.2</v>
+        <v>55533413349.8</v>
       </c>
       <c r="E69" s="2" t="n">
-        <v>20286533491.8</v>
+        <v>12817074653.6</v>
       </c>
       <c r="F69" s="3" t="n">
-        <v>33.2</v>
+        <v>23.1</v>
       </c>
     </row>
     <row r="70">
@@ -20570,13 +20570,13 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>6379891895.7</v>
+        <v>6664104724.4</v>
       </c>
       <c r="E70" s="2" t="n">
-        <v>287715260.2</v>
+        <v>282503485.2</v>
       </c>
       <c r="F70" s="3" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="71">
@@ -20594,13 +20594,13 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>26907074144.9</v>
+        <v>28599766000.3</v>
       </c>
       <c r="E71" s="2" t="n">
-        <v>2740980020.8</v>
+        <v>3285599088.3</v>
       </c>
       <c r="F71" s="3" t="n">
-        <v>10.2</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="72">
@@ -20618,13 +20618,13 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>4098114567.3</v>
+        <v>3917689753.8</v>
       </c>
       <c r="E72" s="2" t="n">
-        <v>695198914.6</v>
+        <v>353109794.1</v>
       </c>
       <c r="F72" s="3" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73">
@@ -20642,13 +20642,13 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>5794980294.2</v>
+        <v>6085661781.3</v>
       </c>
       <c r="E73" s="2" t="n">
-        <v>386040008.4</v>
+        <v>419755801.3</v>
       </c>
       <c r="F73" s="3" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="74">
@@ -20666,13 +20666,13 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>20385036518.7</v>
+        <v>22898386887.8</v>
       </c>
       <c r="E74" s="2" t="n">
-        <v>2902313578.8</v>
+        <v>4585101989.3</v>
       </c>
       <c r="F74" s="3" t="n">
-        <v>14.2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75">
@@ -20690,13 +20690,13 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>4596091118.9</v>
+        <v>4833616368.2</v>
       </c>
       <c r="E75" s="2" t="n">
-        <v>255635354.5</v>
+        <v>286956029.6</v>
       </c>
       <c r="F75" s="3" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="76">
@@ -20714,13 +20714,13 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>3205277172.8</v>
+        <v>3165623823.5</v>
       </c>
       <c r="E76" s="2" t="n">
-        <v>496296462.5</v>
+        <v>327945979.9</v>
       </c>
       <c r="F76" s="3" t="n">
-        <v>15.5</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="77">
@@ -20738,13 +20738,13 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>6451191458.8</v>
+        <v>6700799717.1</v>
       </c>
       <c r="E77" s="2" t="n">
-        <v>486886431.1</v>
+        <v>453144957.1</v>
       </c>
       <c r="F77" s="3" t="n">
-        <v>7.5</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="78">
@@ -20762,13 +20762,13 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>8086413919.3</v>
+        <v>8704191465.5</v>
       </c>
       <c r="E78" s="2" t="n">
-        <v>875616815.5</v>
+        <v>1150826800.2</v>
       </c>
       <c r="F78" s="3" t="n">
-        <v>10.8</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="79">
@@ -20786,13 +20786,13 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>18417497242.8</v>
+        <v>19220474657.3</v>
       </c>
       <c r="E79" s="2" t="n">
-        <v>2666772194.7</v>
+        <v>2721470688.9</v>
       </c>
       <c r="F79" s="3" t="n">
-        <v>14.5</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="80">
@@ -20810,13 +20810,13 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>22340748760.2</v>
+        <v>20178789209.4</v>
       </c>
       <c r="E80" s="2" t="n">
-        <v>8049778264.5</v>
+        <v>5208889208</v>
       </c>
       <c r="F80" s="3" t="n">
-        <v>36</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="81">
@@ -20834,13 +20834,13 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>221364582405.9</v>
+        <v>223904082953</v>
       </c>
       <c r="E81" s="2" t="n">
-        <v>85671463709.3</v>
+        <v>82563490707.5</v>
       </c>
       <c r="F81" s="3" t="n">
-        <v>38.7</v>
+        <v>36.9</v>
       </c>
     </row>
     <row r="82">
@@ -20858,13 +20858,13 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>21575336198</v>
+        <v>17992098204.6</v>
       </c>
       <c r="E82" s="2" t="n">
-        <v>6908287214.9</v>
+        <v>2676298308.9</v>
       </c>
       <c r="F82" s="3" t="n">
-        <v>32</v>
+        <v>14.9</v>
       </c>
     </row>
     <row r="83">
@@ -20882,13 +20882,13 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>43008717029.4</v>
+        <v>44836485795.7</v>
       </c>
       <c r="E83" s="2" t="n">
-        <v>2714791891.4</v>
+        <v>2760285250.2</v>
       </c>
       <c r="F83" s="3" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="84">
@@ -20906,13 +20906,13 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>9015742779.299999</v>
+        <v>9210613521.700001</v>
       </c>
       <c r="E84" s="2" t="n">
-        <v>526463142.1</v>
+        <v>345837224</v>
       </c>
       <c r="F84" s="3" t="n">
-        <v>5.8</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="85">
@@ -20930,13 +20930,13 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>15611096633</v>
+        <v>15567068143.8</v>
       </c>
       <c r="E85" s="2" t="n">
-        <v>3167274684.1</v>
+        <v>2572832757.6</v>
       </c>
       <c r="F85" s="3" t="n">
-        <v>20.3</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="86">
@@ -20954,13 +20954,13 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>3983961826.2</v>
+        <v>4087866843.3</v>
       </c>
       <c r="E86" s="2" t="n">
-        <v>120323148.3</v>
+        <v>53332225.7</v>
       </c>
       <c r="F86" s="3" t="n">
-        <v>3</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="87">
@@ -20978,13 +20978,13 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>75260928583.60001</v>
+        <v>73888290342</v>
       </c>
       <c r="E87" s="2" t="n">
-        <v>17726121971.5</v>
+        <v>13808612001.7</v>
       </c>
       <c r="F87" s="3" t="n">
-        <v>23.6</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="88">
@@ -21002,13 +21002,13 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>481862375.2</v>
+        <v>505618741.4</v>
       </c>
       <c r="E88" s="2" t="n">
-        <v>11077801</v>
+        <v>14010488.2</v>
       </c>
       <c r="F88" s="3" t="n">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="89">
@@ -21026,13 +21026,13 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>5146657178.9</v>
+        <v>4208656404.3</v>
       </c>
       <c r="E89" s="2" t="n">
-        <v>1277477747.4</v>
+        <v>168335955.3</v>
       </c>
       <c r="F89" s="3" t="n">
-        <v>24.8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90">
@@ -21050,13 +21050,13 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>6285410522.7</v>
+        <v>5559863713.4</v>
       </c>
       <c r="E90" s="2" t="n">
-        <v>1454712352.9</v>
+        <v>515494760.2</v>
       </c>
       <c r="F90" s="3" t="n">
-        <v>23.1</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="91">
@@ -21074,13 +21074,13 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>12444694726.7</v>
+        <v>11714856033.9</v>
       </c>
       <c r="E91" s="2" t="n">
-        <v>1479048199.5</v>
+        <v>264178523.4</v>
       </c>
       <c r="F91" s="3" t="n">
-        <v>11.9</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="92">
@@ -21098,13 +21098,13 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>4883924391.8</v>
+        <v>4844804271.3</v>
       </c>
       <c r="E92" s="2" t="n">
-        <v>457558133.8</v>
+        <v>222651584</v>
       </c>
       <c r="F92" s="3" t="n">
-        <v>9.4</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="93">
@@ -21122,13 +21122,13 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>8825194986.200001</v>
+        <v>9097184983.1</v>
       </c>
       <c r="E93" s="2" t="n">
-        <v>1157642728.9</v>
+        <v>1090482598.8</v>
       </c>
       <c r="F93" s="3" t="n">
-        <v>13.1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94">
@@ -21146,13 +21146,13 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>1210970850.9</v>
+        <v>1206651017</v>
       </c>
       <c r="E94" s="2" t="n">
-        <v>84994789.90000001</v>
+        <v>30870936.3</v>
       </c>
       <c r="F94" s="3" t="n">
-        <v>7</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="95">
@@ -21170,13 +21170,13 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>2900299218.1</v>
+        <v>3071838499.1</v>
       </c>
       <c r="E95" s="2" t="n">
-        <v>445628071</v>
+        <v>508592672.3</v>
       </c>
       <c r="F95" s="3" t="n">
-        <v>15.4</v>
+        <v>16.6</v>
       </c>
     </row>
     <row r="96">
@@ -21194,13 +21194,13 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>9878306312.200001</v>
+        <v>9453545860.200001</v>
       </c>
       <c r="E96" s="2" t="n">
-        <v>1988285114.5</v>
+        <v>1214534319.7</v>
       </c>
       <c r="F96" s="3" t="n">
-        <v>20.1</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="97">
@@ -21218,13 +21218,13 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>2718243449.6</v>
+        <v>2542128202</v>
       </c>
       <c r="E97" s="2" t="n">
-        <v>499353242.9</v>
+        <v>225092345.9</v>
       </c>
       <c r="F97" s="3" t="n">
-        <v>18.4</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="98">
@@ -21242,13 +21242,13 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>3739881331.5</v>
+        <v>3698502182.4</v>
       </c>
       <c r="E98" s="2" t="n">
-        <v>601854395.2</v>
+        <v>421674466.1</v>
       </c>
       <c r="F98" s="3" t="n">
-        <v>16.1</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="99">
@@ -21266,13 +21266,13 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>2813007533</v>
+        <v>2890786215.7</v>
       </c>
       <c r="E99" s="2" t="n">
-        <v>263251196.1</v>
+        <v>228249403.9</v>
       </c>
       <c r="F99" s="3" t="n">
-        <v>9.4</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="100">
@@ -21290,13 +21290,13 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>3273275989.7</v>
+        <v>3257489457.8</v>
       </c>
       <c r="E100" s="2" t="n">
-        <v>372924730.1</v>
+        <v>228850256.4</v>
       </c>
       <c r="F100" s="3" t="n">
-        <v>11.4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101">
@@ -21314,13 +21314,13 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>37280856535.3</v>
+        <v>38829402572.7</v>
       </c>
       <c r="E101" s="2" t="n">
-        <v>2135428632.8</v>
+        <v>2129426891</v>
       </c>
       <c r="F101" s="3" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="102">
@@ -21338,13 +21338,13 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>4234997768.6</v>
+        <v>4270427456.6</v>
       </c>
       <c r="E102" s="2" t="n">
-        <v>523810843.3</v>
+        <v>395087816.7</v>
       </c>
       <c r="F102" s="3" t="n">
-        <v>12.4</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="103">
@@ -21362,13 +21362,13 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>51304795681.2</v>
+        <v>51788085586.6</v>
       </c>
       <c r="E103" s="2" t="n">
-        <v>14864615507.3</v>
+        <v>13736088327.5</v>
       </c>
       <c r="F103" s="3" t="n">
-        <v>29</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="104">
@@ -21386,13 +21386,13 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>65911278129.7</v>
+        <v>70231844689.7</v>
       </c>
       <c r="E104" s="2" t="n">
-        <v>18520963774.8</v>
+        <v>20745368406.2</v>
       </c>
       <c r="F104" s="3" t="n">
-        <v>28.1</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="105">
@@ -21410,13 +21410,13 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>25716294675.4</v>
+        <v>28116663352.1</v>
       </c>
       <c r="E105" s="2" t="n">
-        <v>5259961987.5</v>
+        <v>6755508943.5</v>
       </c>
       <c r="F105" s="3" t="n">
-        <v>20.5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="106">
@@ -21434,13 +21434,13 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>59294135505</v>
+        <v>59134399768</v>
       </c>
       <c r="E106" s="2" t="n">
-        <v>14475973319.6</v>
+        <v>12333846738.4</v>
       </c>
       <c r="F106" s="3" t="n">
-        <v>24.4</v>
+        <v>20.9</v>
       </c>
     </row>
     <row r="107">
@@ -21458,13 +21458,13 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>18568567763.5</v>
+        <v>17430314932.9</v>
       </c>
       <c r="E107" s="2" t="n">
-        <v>6723728754.2</v>
+        <v>5061556618.1</v>
       </c>
       <c r="F107" s="3" t="n">
-        <v>36.2</v>
+        <v>29</v>
       </c>
     </row>
     <row r="108">
@@ -21482,13 +21482,13 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>26127058688.4</v>
+        <v>28613974940</v>
       </c>
       <c r="E108" s="2" t="n">
-        <v>5439403929.1</v>
+        <v>7011266653.6</v>
       </c>
       <c r="F108" s="3" t="n">
-        <v>20.8</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="109">
@@ -21506,13 +21506,13 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>69679824351.7</v>
+        <v>63945278343.8</v>
       </c>
       <c r="E109" s="2" t="n">
-        <v>23148270653.8</v>
+        <v>15355547301.7</v>
       </c>
       <c r="F109" s="3" t="n">
-        <v>33.2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="110">
@@ -21530,13 +21530,13 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>7888008115.2</v>
+        <v>8278788564.5</v>
       </c>
       <c r="E110" s="2" t="n">
-        <v>355727078.9</v>
+        <v>413340699.5</v>
       </c>
       <c r="F110" s="3" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="111">
@@ -21554,13 +21554,13 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>33939474780.8</v>
+        <v>36776689938.8</v>
       </c>
       <c r="E111" s="2" t="n">
-        <v>3457359272.5</v>
+        <v>4946293649.9</v>
       </c>
       <c r="F111" s="3" t="n">
-        <v>10.2</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="112">
@@ -21578,13 +21578,13 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>4594851964.4</v>
+        <v>4399581355.6</v>
       </c>
       <c r="E112" s="2" t="n">
-        <v>779464811.5</v>
+        <v>415432518</v>
       </c>
       <c r="F112" s="3" t="n">
-        <v>17</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="113">
@@ -21602,13 +21602,13 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>7386576856</v>
+        <v>7837612307.4</v>
       </c>
       <c r="E113" s="2" t="n">
-        <v>492066244.7</v>
+        <v>638144642</v>
       </c>
       <c r="F113" s="3" t="n">
-        <v>6.7</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="114">
@@ -21626,13 +21626,13 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>22025215968.9</v>
+        <v>24808874879.3</v>
       </c>
       <c r="E114" s="2" t="n">
-        <v>3135833645.6</v>
+        <v>5083979970.5</v>
       </c>
       <c r="F114" s="3" t="n">
-        <v>14.2</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="115">
@@ -21650,13 +21650,13 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>5580619769.1</v>
+        <v>5906930477.5</v>
       </c>
       <c r="E115" s="2" t="n">
-        <v>310395002.2</v>
+        <v>403593846.6</v>
       </c>
       <c r="F115" s="3" t="n">
-        <v>5.6</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="116">
@@ -21674,13 +21674,13 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>4196621928.6</v>
+        <v>4295479047.8</v>
       </c>
       <c r="E116" s="2" t="n">
-        <v>649793607.6</v>
+        <v>591767899.6</v>
       </c>
       <c r="F116" s="3" t="n">
-        <v>15.5</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="117">
@@ -21698,13 +21698,13 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>7367146076.4</v>
+        <v>7678651759.8</v>
       </c>
       <c r="E117" s="2" t="n">
-        <v>556015657.4</v>
+        <v>566252348</v>
       </c>
       <c r="F117" s="3" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="118">
@@ -21722,13 +21722,13 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>8924542343.5</v>
+        <v>9656439676.299999</v>
       </c>
       <c r="E118" s="2" t="n">
-        <v>966371425.5</v>
+        <v>1346264026.4</v>
       </c>
       <c r="F118" s="3" t="n">
-        <v>10.8</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="119">
@@ -21746,13 +21746,13 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>21385933869.6</v>
+        <v>22587149472.7</v>
       </c>
       <c r="E119" s="2" t="n">
-        <v>3096588697.6</v>
+        <v>3488832476.6</v>
       </c>
       <c r="F119" s="3" t="n">
-        <v>14.5</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="120">
@@ -21770,13 +21770,13 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>24873359359.8</v>
+        <v>22681373338.3</v>
       </c>
       <c r="E120" s="2" t="n">
-        <v>8962323944</v>
+        <v>6066563171.5</v>
       </c>
       <c r="F120" s="3" t="n">
-        <v>36</v>
+        <v>26.7</v>
       </c>
     </row>
     <row r="121">
@@ -21794,13 +21794,13 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>231917931874.4</v>
+        <v>234877488202.9</v>
       </c>
       <c r="E121" s="2" t="n">
-        <v>89755770630.39999</v>
+        <v>87041061307.89999</v>
       </c>
       <c r="F121" s="3" t="n">
-        <v>38.7</v>
+        <v>37.1</v>
       </c>
     </row>
     <row r="122">
